--- a/mf-intelligence/data/processed/quant/quant_Liquid_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Liquid_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INE033L14OJ5</t>
+          <t>INE040A16GJ4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tata Capital Housing Fin CP 14-Jan-2026</t>
+          <t>HDFC Bank Ltd CD 25-Feb-2026</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,30 +492,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8.325077</v>
+        <v>7.89811</v>
       </c>
       <c r="E2" t="n">
-        <v>5.809076</v>
+        <v>8.269011000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>5.81951</v>
+        <v>5.771966</v>
       </c>
       <c r="G2" t="n">
-        <v>2.516001</v>
+        <v>-0.3709010000000008</v>
       </c>
       <c r="H2" t="n">
-        <v>2.505567</v>
+        <v>2.126144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INE040A16GJ4</t>
+          <t>INE237A166Z3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HDFC Bank Ltd CD 25-Feb-2026</t>
+          <t>Kotak Mahindra Bank Ltd CD 27-Feb-2026</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,30 +524,30 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8.269011000000001</v>
+        <v>7.895722</v>
       </c>
       <c r="E3" t="n">
-        <v>5.771966</v>
+        <v>8.266792000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.497045000000001</v>
+        <v>-0.3710700000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>8.269011000000001</v>
+        <v>7.895722</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INE237A166Z3</t>
+          <t>INE028A16HW0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kotak Mahindra Bank Ltd CD 27-Feb-2026</t>
+          <t>Bank Of Baroda CD 06-Mar-2026</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,30 +556,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8.266792000000001</v>
+        <v>7.884695</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>8.257505999999999</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>8.266792000000001</v>
+        <v>-0.3728109999999996</v>
       </c>
       <c r="H4" t="n">
-        <v>8.266792000000001</v>
+        <v>7.884695</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INE028A16HW0</t>
+          <t>INE508G14IE9</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bank Of Baroda CD 06-Mar-2026</t>
+          <t>Time Technoplast Limited CP 20-Mar-2026</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,30 +588,30 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8.257505999999999</v>
+        <v>7.8484</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>8.211885000000001</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>8.257505999999999</v>
+        <v>-0.3634850000000007</v>
       </c>
       <c r="H5" t="n">
-        <v>8.257505999999999</v>
+        <v>7.8484</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INE508G14IE9</t>
+          <t>INE296A14E79</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Time Technoplast Limited CP 20-Mar-2026</t>
+          <t>Bajaj Finance Limited CP 29-Apr-2026</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8.211885000000001</v>
+        <v>7.787876</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -629,21 +629,21 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>8.211885000000001</v>
+        <v>7.787876</v>
       </c>
       <c r="H6" t="n">
-        <v>8.211885000000001</v>
+        <v>7.787876</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE233A144Q3</t>
+          <t>INE763G14E51</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Godrej Industries Ltd CP 16-Jan-2026</t>
+          <t>ICICI Securities Ltd CP 30-Apr-2026</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,30 +652,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.241449</v>
+        <v>7.782529</v>
       </c>
       <c r="E7" t="n">
-        <v>4.354897</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>4.362587</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.886552</v>
+        <v>7.782529</v>
       </c>
       <c r="H7" t="n">
-        <v>1.878862</v>
+        <v>7.782529</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INE238AD6AE9</t>
+          <t>INE233A146K1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Axis Bank Limited CD 08-Jan-2026</t>
+          <t>Godrej Industries Ltd CP 20-Apr-2026</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,30 +684,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.166773</v>
+        <v>5.854878</v>
       </c>
       <c r="E8" t="n">
-        <v>2.907702</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2.91291</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.259071</v>
+        <v>5.854878</v>
       </c>
       <c r="H8" t="n">
-        <v>1.253863</v>
+        <v>5.854878</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INE414G14UB1</t>
+          <t>INE476A16A24</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Muthoot Finance Ltd CP 12-Jan-2026</t>
+          <t>Canara Bank CD 03-Feb-2026</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,30 +716,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4.163189</v>
+        <v>3.964613</v>
       </c>
       <c r="E9" t="n">
-        <v>2.903499</v>
+        <v>4.149348</v>
       </c>
       <c r="F9" t="n">
-        <v>2.906477</v>
+        <v>2.89556</v>
       </c>
       <c r="G9" t="n">
-        <v>1.25969</v>
+        <v>-0.1847349999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1.256712</v>
+        <v>1.069053</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE618R14018</t>
+          <t>INE514E16CJ9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SG Finserv Ltd CP 27-Jan-2026</t>
+          <t>EXIM Bank CD 04-Mar-2026</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -748,30 +748,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.149965</v>
+        <v>3.943704</v>
       </c>
       <c r="E10" t="n">
-        <v>2.892022</v>
+        <v>4.130146</v>
       </c>
       <c r="F10" t="n">
-        <v>2.894208</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.257943</v>
+        <v>-0.186442</v>
       </c>
       <c r="H10" t="n">
-        <v>1.255757</v>
+        <v>3.943704</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE476A16A24</t>
+          <t>INE115A14FK9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Canara Bank CD 03-Feb-2026</t>
+          <t>LIC Housing Finance Ltd CP 11-Mar-2026</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,30 +780,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.149348</v>
+        <v>3.93827</v>
       </c>
       <c r="E11" t="n">
-        <v>2.89556</v>
+        <v>4.12479</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.253788</v>
+        <v>-0.1865199999999998</v>
       </c>
       <c r="H11" t="n">
-        <v>4.149348</v>
+        <v>3.93827</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE514E16CJ9</t>
+          <t>INE028E14TY8</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EXIM Bank CD 04-Mar-2026</t>
+          <t>Kotak Securities Ltd CP 10-Mar-2026</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -812,30 +812,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4.130146</v>
+        <v>3.937286</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>4.121816</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>4.130146</v>
+        <v>-0.1845300000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>4.130146</v>
+        <v>3.937286</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE115A14FK9</t>
+          <t>INE134E14AX6</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LIC Housing Finance Ltd CP 11-Mar-2026</t>
+          <t>Power Finance Corp Ltd CP 15-Apr-2026</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4.12479</v>
+        <v>3.909039</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -853,21 +853,21 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>4.12479</v>
+        <v>3.909039</v>
       </c>
       <c r="H13" t="n">
-        <v>4.12479</v>
+        <v>3.909039</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE028E14TY8</t>
+          <t>INE238AD6BX7</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Kotak Securities Ltd CP 10-Mar-2026</t>
+          <t>Axis Bank Limited CD 29-Apr-2026</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4.121816</v>
+        <v>3.898289</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -885,21 +885,21 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.121816</v>
+        <v>3.898289</v>
       </c>
       <c r="H14" t="n">
-        <v>4.121816</v>
+        <v>3.898289</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE018A14LR8</t>
+          <t>INE556F16AX2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Larsen &amp; Toubro Ltd CP 26-Dec-2025</t>
+          <t>SIDBI CD 05-Dec-2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -911,27 +911,27 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>5.828793</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>5.838574</v>
+        <v>5.848539</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.828793</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>-5.838574</v>
+        <v>-5.848539</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE556F16AX2</t>
+          <t>INE414G14UB1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SIDBI CD 05-Dec-2025</t>
+          <t>Muthoot Finance Ltd CP 12-Jan-2026</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -943,27 +943,27 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>5.848539</v>
+        <v>4.163189</v>
       </c>
       <c r="F16" t="n">
-        <v>5.858799</v>
+        <v>2.903499</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.848539</v>
+        <v>-4.163189</v>
       </c>
       <c r="H16" t="n">
-        <v>-5.858799</v>
+        <v>-2.903499</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE763G14B62</t>
+          <t>INE618R14018</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ICICI Securities Ltd CP 12-Jan-2026</t>
+          <t>SG Finserv Ltd CP 27-Jan-2026</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -975,27 +975,27 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>5.807624</v>
+        <v>4.149965</v>
       </c>
       <c r="F17" t="n">
-        <v>5.814991</v>
+        <v>2.892022</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.807624</v>
+        <v>-4.149965</v>
       </c>
       <c r="H17" t="n">
-        <v>-5.814991</v>
+        <v>-2.892022</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE514E14SJ0</t>
+          <t>INE763G14B62</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EXIM Bank CP 17-Nov-2025</t>
+          <t>ICICI Securities Ltd CP 12-Jan-2026</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1010,24 +1010,24 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2.938057</v>
+        <v>5.807624</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.938057</v>
+        <v>-5.807624</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE261F16900</t>
+          <t>INE508G14HS1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NABARD CD 22-Jan-2026</t>
+          <t>Time Technoplast Limited CP 24-Dec-2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1039,27 +1039,27 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2.90097</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2.906232</v>
+        <v>5.824888</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.90097</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.906232</v>
+        <v>-5.824888</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE508G14HS1</t>
+          <t>INE018A14LR8</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Time Technoplast Limited CP 24-Dec-2025</t>
+          <t>Larsen &amp; Toubro Ltd CP 26-Dec-2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1071,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>5.824888</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.827681</v>
+        <v>5.828793</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.824888</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-5.827681</v>
+        <v>-5.828793</v>
       </c>
     </row>
     <row r="21">
@@ -1103,27 +1103,27 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>2.903587</v>
       </c>
-      <c r="F21" t="n">
-        <v>2.907949</v>
-      </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>-2.903587</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-2.907949</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE238AD6AF6</t>
+          <t>INE261F16900</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Axis Bank Limited CD 07-Jan-2026</t>
+          <t>NABARD CD 22-Jan-2026</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1135,27 +1135,27 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>2.908182</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>2.91339</v>
+        <v>2.90097</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.908182</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-2.91339</v>
+        <v>-2.90097</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE192R14287</t>
+          <t>INE238AD6AE9</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Avenue Supermarts CP 29-Dec-2025</t>
+          <t>Axis Bank Limited CD 08-Jan-2026</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1167,27 +1167,27 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>5.825315</v>
+        <v>4.166773</v>
       </c>
       <c r="F23" t="n">
-        <v>5.834439</v>
+        <v>2.907702</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.825315</v>
+        <v>-4.166773</v>
       </c>
       <c r="H23" t="n">
-        <v>-5.834439</v>
+        <v>-2.907702</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INE028A16JS4</t>
+          <t>INE233A144Q3</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bank Of Baroda CD 02-Dec-2025</t>
+          <t>Godrej Industries Ltd CP 16-Jan-2026</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1199,27 +1199,27 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>2.925713</v>
+        <v>6.241449</v>
       </c>
       <c r="F24" t="n">
-        <v>2.930893</v>
+        <v>4.354897</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.925713</v>
+        <v>-6.241449</v>
       </c>
       <c r="H24" t="n">
-        <v>-2.930893</v>
+        <v>-4.354897</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE891K14PH9</t>
+          <t>INE192R14287</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Axis Finance Ltd CP 20 Nov 2025</t>
+          <t>Avenue Supermarts CP 29-Dec-2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1234,13 +1234,109 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>2.935924</v>
+        <v>5.825315</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-2.935924</v>
+        <v>-5.825315</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>INE033L14OJ5</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Tata Capital Housing Fin CP 14-Jan-2026</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>quant Liquid Fund</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8.325077</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5.809076</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-8.325077</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-5.809076</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>INE028A16JS4</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Bank Of Baroda CD 02-Dec-2025</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>quant Liquid Fund</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.925713</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-2.925713</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>INE238AD6AF6</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Axis Bank Limited CD 07-Jan-2026</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>quant Liquid Fund</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.908182</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-2.908182</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Liquid_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Liquid_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,27 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>quant Liquid Fund</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Complete Exit</t>
         </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>5.834439</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>-5.834439</v>
       </c>
     </row>
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>quant Liquid Fund</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Complete Exit</t>
         </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.906232</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>-2.906232</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>N.A.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>quant Liquid Fund</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>4.149965</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>2.894208</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>-4.149965</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>-2.894208</v>
       </c>
     </row>
